--- a/src/predictive_dialer/updated_leads.xlsx
+++ b/src/predictive_dialer/updated_leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +461,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>new col</t>
+          <t>priority</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>priority</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>call status</t>
         </is>
@@ -496,12 +491,9 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
-      </c>
-      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Call completed for Hashir</t>
         </is>
@@ -528,12 +520,9 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Call completed for John</t>
         </is>
@@ -560,12 +549,9 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Call completed for Taha</t>
         </is>
@@ -591,11 +577,10 @@
           <t>new</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Skipping Eyyan: No valid phone number</t>
         </is>
@@ -621,11 +606,10 @@
           <t>new</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Skipping Rohan: No valid phone number</t>
         </is>
@@ -652,12 +636,9 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Call completed for Mick</t>
         </is>
